--- a/SampleApp/模版/01填充数据/Sample01.xlsx
+++ b/SampleApp/模版/01填充数据/Sample01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView windowWidth="28500" windowHeight="17355"/>
   </bookViews>
   <sheets>
     <sheet name="基本填充" sheetId="4" r:id="rId1"/>
@@ -12,85 +12,62 @@
     <sheet name="带标题行且填充列有间隔" sheetId="1" r:id="rId3"/>
     <sheet name="带标题行且填充列是单行多列的合并单元格" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$tb1Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$tb1Chinese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$tb1Math</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$tb1English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$thTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汉字1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汉字2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +75,6 @@
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -106,14 +82,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,19 +96,169 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +277,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -163,29 +474,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,201 +489,412 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,7 +908,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -436,7 +943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -471,7 +978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -645,108 +1152,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>11</v>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="25.5" spans="1:4">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
+      <c r="D2" s="23" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -754,81 +1263,81 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="2" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" ht="25.5" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="2"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="36.75" customHeight="1" spans="1:10">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -836,82 +1345,82 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="2" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" ht="25.5" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="29.25" customHeight="1" spans="1:10">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -925,8 +1434,8 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>